--- a/src/main/resources/docs/DesignDoc.xlsx
+++ b/src/main/resources/docs/DesignDoc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\ZIZA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\ZIZA\RemoteMovieBooking\movie-booking-backend\src\main\resources\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3975"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="3" r:id="rId1"/>
@@ -808,7 +808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1097,7 +1097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
